--- a/Diagrammi/Pianificazione progetti Gantt1 rev 2021.09.27 x fabio.xlsx
+++ b/Diagrammi/Pianificazione progetti Gantt1 rev 2021.09.27 x fabio.xlsx
@@ -852,7 +852,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -978,7 +978,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -1202,7 +1202,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -1317,13 +1317,13 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="2.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="2" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="2" width="8.92"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="2" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="2" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="2" width="3.5"/>
@@ -3058,70 +3058,70 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="between" prompt="Project Planner usa punti per gli intervalli. Inizio=1 è il periodo 1 e la durata=5 indica che il progetto si estenderà di 5 periodi a partire dal periodo di inizio. Immettere i dati a partire da B5 per aggiornare il grafico" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Project Planner usa punti per gli intervalli. Inizio=1 è il periodo 1 e la durata=5 indica che il progetto si estenderà di 5 periodi a partire dal periodo di inizio. Immettere i dati a partire da B5 per aggiornare il grafico" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Digitare un valore compreso tra 1 e 60 oppure selezionare un periodo nell'elenco-Scegliere Annulla, premere ALT+freccia GIÙ e quindi INVIO per selezionare un valore" operator="between" prompt="Immettere un periodo compreso tra 1 e 60 o selezionare un periodo dall'elenco. Premere ALT + freccia giù per spostarsi nell'elenco e quindi INVIO per selezionare un valore" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2" type="list">
+    <dataValidation allowBlank="true" error="Digitare un valore compreso tra 1 e 60 oppure selezionare un periodo nell'elenco-Scegliere Annulla, premere ALT+freccia GIÙ e quindi INVIO per selezionare un valore" errorStyle="warning" operator="between" prompt="Immettere un periodo compreso tra 1 e 60 o selezionare un periodo dall'elenco. Premere ALT + freccia giù per spostarsi nell'elenco e quindi INVIO per selezionare un valore" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2" type="list">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Questa cella della legenda indica la durata del piano" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Questa cella della legenda indica la durata del piano" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Questa cella della legenda indica la durata effettiva" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Questa cella della legenda indica la durata effettiva" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Questa cella della legenda indica la durata effettiva oltre il piano" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Questa cella della legenda indica la durata effettiva oltre il piano" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Questa cella della legenda indica la percentuale di completamento del progetto oltre il piano" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Questa cella della legenda indica la percentuale di completamento del progetto oltre il piano" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="I periodi vengono rappresentati da 1 a 60, dalla cella H4 alla cella BO4 " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="I periodi vengono rappresentati da 1 a 60, dalla cella H4 alla cella BO4 " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Immettere l'attività nella colonna B, iniziando dalla cella B5&#10;" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B4" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Immettere l'attività nella colonna B, iniziando dalla cella B5&#10;" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Immettere il periodo di inizio del piano nella colonna C, iniziando dalla cella C5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C4" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Immettere il periodo di inizio del piano nella colonna C, iniziando dalla cella C5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Immettere il periodo della durata del piano nella colonna D, iniziando dalla cella D5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D4" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Immettere il periodo della durata del piano nella colonna D, iniziando dalla cella D5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Immettere il periodo di inizio effettivo nella colonna E, iniziando dalla cella E5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E4" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Immettere il periodo di inizio effettivo nella colonna E, iniziando dalla cella E5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Immettere il periodo della durata effettiva nella colonna F, iniziando dalla cella F5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F3:F4" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Immettere il periodo della durata effettiva nella colonna F, iniziando dalla cella F5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F3:F4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Immettere la percentuale di completamento del progetto nella colonna G, iniziando dalla cella G5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3:G4" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Immettere la percentuale di completamento del progetto nella colonna G, iniziando dalla cella G5" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3:G4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Titolo del progetto. Immettere un nuovo titolo in questa cella. Evidenziare un periodo in H2. La legenda del grafico va da J2 ad AI2" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Titolo del progetto. Immettere un nuovo titolo in questa cella. Evidenziare un periodo in H2. La legenda del grafico va da J2 ad AI2" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Selezionare un periodo da evidenziare in H2. La legenda del grafico va da J2 ad AI2" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:F2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Selezionare un periodo da evidenziare in H2. La legenda del grafico va da J2 ad AI2" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:F2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.511805555555555" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
